--- a/sample_data/Datasheets.xlsx
+++ b/sample_data/Datasheets.xlsx
@@ -1,31 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28619"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvasn\Dropbox\Praktikum\A7_demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvasn\Documents\GitHub\LabA7\sample_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A02B1466-DDC2-49D0-9B0B-E53AB64948ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345796BD-3542-4C85-9429-FF77CE2F79EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13620" yWindow="450" windowWidth="19995" windowHeight="15885" activeTab="5" xr2:uid="{A7C4CEEA-4BC4-4FF2-A926-5BE682A73414}"/>
+    <workbookView xWindow="14310" yWindow="1140" windowWidth="19995" windowHeight="15885" activeTab="1" xr2:uid="{A7C4CEEA-4BC4-4FF2-A926-5BE682A73414}"/>
   </bookViews>
   <sheets>
     <sheet name="skull_x_y" sheetId="1" r:id="rId1"/>
-    <sheet name="Hárok1" sheetId="2" r:id="rId2"/>
-    <sheet name="Hárok2" sheetId="3" r:id="rId3"/>
-    <sheet name="Task1" sheetId="4" r:id="rId4"/>
-    <sheet name="Task2" sheetId="5" r:id="rId5"/>
-    <sheet name="Task3" sheetId="6" r:id="rId6"/>
+    <sheet name="Task1" sheetId="4" r:id="rId2"/>
+    <sheet name="Task2" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>x</t>
   </si>
@@ -45,9 +42,6 @@
     <t>y2</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>phi</t>
   </si>
   <si>
@@ -56,21 +50,12 @@
   <si>
     <t>psi</t>
   </si>
-  <si>
-    <t>Pb</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,11 +189,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="33">
@@ -552,11 +532,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - zvýraznenie1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2883,418 +2860,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="sk-SK"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hárok2!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>N</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Hárok2!$B$2:$B$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>48</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Hárok2!$C$2:$C$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>246</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>261</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>281</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>292</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>264</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>227</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>11</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2AAC-4A86-9CBC-466B967B9E07}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="2073402064"/>
-        <c:axId val="2073395344"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="2073402064"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2073395344"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2073395344"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2073402064"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3335,563 +2900,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4448,47 +3457,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>100012</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>404812</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graf 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64FE9F4E-B899-7495-EDE0-3B53706140E5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motív Office">
   <a:themeElements>
@@ -4812,9 +3780,9 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4834,7 +3802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-7.19</v>
       </c>
@@ -4854,7 +3822,7 @@
         <v>-4.32</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-7.19</v>
       </c>
@@ -4874,7 +3842,7 @@
         <v>-4.33</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-7.22</v>
       </c>
@@ -4894,7 +3862,7 @@
         <v>-4.3499999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-7.1</v>
       </c>
@@ -4914,7 +3882,7 @@
         <v>-4.38</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-7.08</v>
       </c>
@@ -4934,7 +3902,7 @@
         <v>-4.4800000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-7.05</v>
       </c>
@@ -4954,7 +3922,7 @@
         <v>-4.51</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-6.92</v>
       </c>
@@ -4974,7 +3942,7 @@
         <v>-4.5199999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-6.81</v>
       </c>
@@ -4988,7 +3956,7 @@
         <v>-4.5599999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-6.68</v>
       </c>
@@ -5002,7 +3970,7 @@
         <v>-4.57</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-6.57</v>
       </c>
@@ -5016,7 +3984,7 @@
         <v>-4.46</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-6.46</v>
       </c>
@@ -5030,7 +3998,7 @@
         <v>-4.41</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-6.38</v>
       </c>
@@ -5044,7 +4012,7 @@
         <v>-4.3600000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-6.28</v>
       </c>
@@ -5058,7 +4026,7 @@
         <v>-4.33</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-6.22</v>
       </c>
@@ -5072,7 +4040,7 @@
         <v>-4.32</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-6.14</v>
       </c>
@@ -5086,7 +4054,7 @@
         <v>-4.3</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-6.02</v>
       </c>
@@ -5094,7 +4062,7 @@
         <v>-1.76</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-6.02</v>
       </c>
@@ -5102,7 +4070,7 @@
         <v>-1.82</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-5.96</v>
       </c>
@@ -5110,7 +4078,7 @@
         <v>-2.08</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-5.96</v>
       </c>
@@ -5118,7 +4086,7 @@
         <v>-2.14</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-5.88</v>
       </c>
@@ -5126,7 +4094,7 @@
         <v>-2.25</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-5.88</v>
       </c>
@@ -5134,7 +4102,7 @@
         <v>-2.3199999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-5.85</v>
       </c>
@@ -5142,7 +4110,7 @@
         <v>-2.38</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-5.8</v>
       </c>
@@ -5150,7 +4118,7 @@
         <v>-2.5099999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-5.72</v>
       </c>
@@ -5158,7 +4126,7 @@
         <v>-2.68</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-5.64</v>
       </c>
@@ -5166,7 +4134,7 @@
         <v>-2.86</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-5.61</v>
       </c>
@@ -5174,7 +4142,7 @@
         <v>-2.92</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-5.43</v>
       </c>
@@ -5182,7 +4150,7 @@
         <v>-3.15</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-5.42</v>
       </c>
@@ -5190,7 +4158,7 @@
         <v>-3.21</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-5.38</v>
       </c>
@@ -5198,7 +4166,7 @@
         <v>-3.28</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-5.34</v>
       </c>
@@ -5206,7 +4174,7 @@
         <v>-3.34</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-5.3</v>
       </c>
@@ -5214,7 +4182,7 @@
         <v>-3.39</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-5.14</v>
       </c>
@@ -5222,7 +4190,7 @@
         <v>-3.55</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-5</v>
       </c>
@@ -5230,7 +4198,7 @@
         <v>-3.71</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-4.95</v>
       </c>
@@ -5238,7 +4206,7 @@
         <v>-3.76</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-4.9000000000000004</v>
       </c>
@@ -5246,7 +4214,7 @@
         <v>-3.8</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-4.8600000000000003</v>
       </c>
@@ -5254,7 +4222,7 @@
         <v>-3.85</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-4.47</v>
       </c>
@@ -5262,7 +4230,7 @@
         <v>-3.96</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-4.41</v>
       </c>
@@ -5270,7 +4238,7 @@
         <v>-3.92</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-4.57</v>
       </c>
@@ -5278,7 +4246,7 @@
         <v>-4.0599999999999996</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-4.3099999999999996</v>
       </c>
@@ -5286,7 +4254,7 @@
         <v>-3.98</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-4.25</v>
       </c>
@@ -5294,7 +4262,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-4.0599999999999996</v>
       </c>
@@ -5302,7 +4270,7 @@
         <v>-4.09</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-3.67</v>
       </c>
@@ -5310,7 +4278,7 @@
         <v>-4.25</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-3.64</v>
       </c>
@@ -5318,7 +4286,7 @@
         <v>-4.28</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>-3.64</v>
       </c>
@@ -5326,7 +4294,7 @@
         <v>-4.3</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-3.5</v>
       </c>
@@ -5334,7 +4302,7 @@
         <v>-4.3600000000000003</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-3.43</v>
       </c>
@@ -5342,7 +4310,7 @@
         <v>-4.4000000000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-3.34</v>
       </c>
@@ -5350,7 +4318,7 @@
         <v>-4.4400000000000004</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>-3.29</v>
       </c>
@@ -5358,7 +4326,7 @@
         <v>-4.43</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-3.21</v>
       </c>
@@ -5366,7 +4334,7 @@
         <v>-4.49</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-3.11</v>
       </c>
@@ -5374,7 +4342,7 @@
         <v>-4.54</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-3.02</v>
       </c>
@@ -5382,7 +4350,7 @@
         <v>-4.57</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-2.94</v>
       </c>
@@ -5390,7 +4358,7 @@
         <v>-4.59</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-2.44</v>
       </c>
@@ -5398,7 +4366,7 @@
         <v>-4.7300000000000004</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-2.36</v>
       </c>
@@ -5406,7 +4374,7 @@
         <v>-4.76</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-2.17</v>
       </c>
@@ -5414,7 +4382,7 @@
         <v>-4.8099999999999996</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-2.1</v>
       </c>
@@ -5422,7 +4390,7 @@
         <v>-4.8</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-2.1</v>
       </c>
@@ -5430,7 +4398,7 @@
         <v>-4.83</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-1.9</v>
       </c>
@@ -5438,7 +4406,7 @@
         <v>-4.84</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-1.85</v>
       </c>
@@ -5446,7 +4414,7 @@
         <v>-4.8099999999999996</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-1.78</v>
       </c>
@@ -5454,7 +4422,7 @@
         <v>-4.83</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-1.53</v>
       </c>
@@ -5462,7 +4430,7 @@
         <v>-4.8099999999999996</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-1.48</v>
       </c>
@@ -5470,7 +4438,7 @@
         <v>-4.83</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-1.32</v>
       </c>
@@ -5478,7 +4446,7 @@
         <v>-4.78</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-1.22</v>
       </c>
@@ -5486,7 +4454,7 @@
         <v>-4.8</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-1.1100000000000001</v>
       </c>
@@ -5494,7 +4462,7 @@
         <v>-4.75</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-0.84</v>
       </c>
@@ -5502,7 +4470,7 @@
         <v>-4.72</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-0.78</v>
       </c>
@@ -5510,7 +4478,7 @@
         <v>-4.76</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-0.63</v>
       </c>
@@ -5518,7 +4486,7 @@
         <v>-4.78</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-0.47</v>
       </c>
@@ -5526,7 +4494,7 @@
         <v>-4.76</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-0.36</v>
       </c>
@@ -5534,7 +4502,7 @@
         <v>-4.8</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-0.31</v>
       </c>
@@ -5542,7 +4510,7 @@
         <v>-4.78</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-0.06</v>
       </c>
@@ -5550,7 +4518,7 @@
         <v>-4.8</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-0.04</v>
       </c>
@@ -5558,7 +4526,7 @@
         <v>-4.75</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-0.01</v>
       </c>
@@ -5566,7 +4534,7 @@
         <v>-4.78</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>-0.01</v>
       </c>
@@ -5574,7 +4542,7 @@
         <v>-4.8099999999999996</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>0.25</v>
       </c>
@@ -5582,7 +4550,7 @@
         <v>-4.8</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>0.3</v>
       </c>
@@ -5590,7 +4558,7 @@
         <v>-4.8099999999999996</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>0.57999999999999996</v>
       </c>
@@ -5598,7 +4566,7 @@
         <v>-4.84</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>0.7</v>
       </c>
@@ -5606,7 +4574,7 @@
         <v>-4.83</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>0.89</v>
       </c>
@@ -5614,7 +4582,7 @@
         <v>-4.8600000000000003</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>0.89</v>
       </c>
@@ -5622,7 +4590,7 @@
         <v>-4.84</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>0.95</v>
       </c>
@@ -5630,7 +4598,7 @@
         <v>-4.8899999999999997</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1.1599999999999999</v>
       </c>
@@ -5638,7 +4606,7 @@
         <v>-4.88</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1.19</v>
       </c>
@@ -5646,7 +4614,7 @@
         <v>-4.8600000000000003</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1.69</v>
       </c>
@@ -5654,7 +4622,7 @@
         <v>-4.92</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1.74</v>
       </c>
@@ -5662,7 +4630,7 @@
         <v>-4.9400000000000004</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1.8</v>
       </c>
@@ -5670,7 +4638,7 @@
         <v>-4.91</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1.98</v>
       </c>
@@ -5678,7 +4646,7 @@
         <v>-4.8899999999999997</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2.15</v>
       </c>
@@ -5686,7 +4654,7 @@
         <v>-4.88</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2.41</v>
       </c>
@@ -5694,7 +4662,7 @@
         <v>-4.8600000000000003</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2.54</v>
       </c>
@@ -5702,7 +4670,7 @@
         <v>-4.84</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2.66</v>
       </c>
@@ -5710,7 +4678,7 @@
         <v>-4.8099999999999996</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2.84</v>
       </c>
@@ -5718,7 +4686,7 @@
         <v>-4.8</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>3.08</v>
       </c>
@@ -5726,7 +4694,7 @@
         <v>-4.78</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>3.14</v>
       </c>
@@ -5734,7 +4702,7 @@
         <v>-4.76</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>3.27</v>
       </c>
@@ -5742,7 +4710,7 @@
         <v>-4.7300000000000004</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>3.51</v>
       </c>
@@ -5750,7 +4718,7 @@
         <v>-4.7</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>3.58</v>
       </c>
@@ -5758,7 +4726,7 @@
         <v>-4.68</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>3.62</v>
       </c>
@@ -5766,7 +4734,7 @@
         <v>-4.67</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>3.72</v>
       </c>
@@ -5774,7 +4742,7 @@
         <v>-4.6500000000000004</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>3.8</v>
       </c>
@@ -5782,7 +4750,7 @@
         <v>-4.6399999999999997</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>3.91</v>
       </c>
@@ -5790,7 +4758,7 @@
         <v>-4.62</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>3.94</v>
       </c>
@@ -5798,7 +4766,7 @@
         <v>-4.5999999999999996</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>3.98</v>
       </c>
@@ -5806,7 +4774,7 @@
         <v>-4.59</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>4.1500000000000004</v>
       </c>
@@ -5814,7 +4782,7 @@
         <v>-4.54</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>4.34</v>
       </c>
@@ -5822,7 +4790,7 @@
         <v>-4.49</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>4.47</v>
       </c>
@@ -5830,7 +4798,7 @@
         <v>-4.4400000000000004</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>4.58</v>
       </c>
@@ -5838,7 +4806,7 @@
         <v>-4.4000000000000004</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>4.9400000000000004</v>
       </c>
@@ -5846,7 +4814,7 @@
         <v>-4.22</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>5.0199999999999996</v>
       </c>
@@ -5854,7 +4822,7 @@
         <v>-4.1900000000000004</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>5.08</v>
       </c>
@@ -5862,7 +4830,7 @@
         <v>-4.16</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>5.14</v>
       </c>
@@ -5870,7 +4838,7 @@
         <v>-4.12</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>5.37</v>
       </c>
@@ -5878,7 +4846,7 @@
         <v>-4.03</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>5.38</v>
       </c>
@@ -5886,7 +4854,7 @@
         <v>-4.01</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>5.5</v>
       </c>
@@ -5894,7 +4862,7 @@
         <v>-3.93</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>5.54</v>
       </c>
@@ -5902,7 +4870,7 @@
         <v>-3.88</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>5.88</v>
       </c>
@@ -5910,7 +4878,7 @@
         <v>-3.64</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>5.9</v>
       </c>
@@ -5918,7 +4886,7 @@
         <v>-3.6</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>6.01</v>
       </c>
@@ -5926,7 +4894,7 @@
         <v>-3.48</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>6.06</v>
       </c>
@@ -5934,7 +4902,7 @@
         <v>-3.44</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>6.42</v>
       </c>
@@ -5942,7 +4910,7 @@
         <v>-3.08</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>6.31</v>
       </c>
@@ -5950,7 +4918,7 @@
         <v>-2.97</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>6.5</v>
       </c>
@@ -5958,7 +4926,7 @@
         <v>-3.02</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>6.66</v>
       </c>
@@ -5966,7 +4934,7 @@
         <v>-2.8</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>6.71</v>
       </c>
@@ -5974,7 +4942,7 @@
         <v>-2.73</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>6.79</v>
       </c>
@@ -5982,7 +4950,7 @@
         <v>-2.62</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>6.87</v>
       </c>
@@ -5990,7 +4958,7 @@
         <v>-2.56</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>6.95</v>
       </c>
@@ -5998,7 +4966,7 @@
         <v>-2.4300000000000002</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>7.11</v>
       </c>
@@ -6006,7 +4974,7 @@
         <v>-2.19</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>7.19</v>
       </c>
@@ -6014,7 +4982,7 @@
         <v>-2.0099999999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>7.26</v>
       </c>
@@ -6022,7 +4990,7 @@
         <v>-1.95</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>7.29</v>
       </c>
@@ -6030,7 +4998,7 @@
         <v>-1.88</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>7.4</v>
       </c>
@@ -6038,7 +5006,7 @@
         <v>-1.68</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>7.42</v>
       </c>
@@ -6046,7 +5014,7 @@
         <v>-1.61</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>7.48</v>
       </c>
@@ -6054,7 +5022,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>7.51</v>
       </c>
@@ -6062,7 +5030,7 @@
         <v>-1.26</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>7.53</v>
       </c>
@@ -6070,7 +5038,7 @@
         <v>-1.1299999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>7.56</v>
       </c>
@@ -6078,7 +5046,7 @@
         <v>-1.07</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>7.58</v>
       </c>
@@ -6086,7 +5054,7 @@
         <v>-0.97</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>7.59</v>
       </c>
@@ -6094,7 +5062,7 @@
         <v>-0.91</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>7.61</v>
       </c>
@@ -6102,7 +5070,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>7.61</v>
       </c>
@@ -6110,7 +5078,7 @@
         <v>-0.56999999999999995</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>7.61</v>
       </c>
@@ -6118,7 +5086,7 @@
         <v>-0.49</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>7.62</v>
       </c>
@@ -6126,7 +5094,7 @@
         <v>-0.43</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>7.64</v>
       </c>
@@ -6134,7 +5102,7 @@
         <v>-0.35</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>7.62</v>
       </c>
@@ -6142,7 +5110,7 @@
         <v>-0.28000000000000003</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>7.64</v>
       </c>
@@ -6150,7 +5118,7 @@
         <v>-0.12</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>7.66</v>
       </c>
@@ -6158,7 +5126,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>7.67</v>
       </c>
@@ -6166,7 +5134,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>7.66</v>
       </c>
@@ -6174,7 +5142,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>7.64</v>
       </c>
@@ -6182,7 +5150,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>7.64</v>
       </c>
@@ -6190,7 +5158,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>7.62</v>
       </c>
@@ -6198,7 +5166,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>7.62</v>
       </c>
@@ -6206,7 +5174,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>7.62</v>
       </c>
@@ -6214,7 +5182,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>7.58</v>
       </c>
@@ -6222,7 +5190,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>7.56</v>
       </c>
@@ -6230,7 +5198,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>7.54</v>
       </c>
@@ -6238,7 +5206,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>7.51</v>
       </c>
@@ -6246,7 +5214,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>7.5</v>
       </c>
@@ -6254,7 +5222,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>7.46</v>
       </c>
@@ -6262,7 +5230,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>7.32</v>
       </c>
@@ -6270,7 +5238,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>7.24</v>
       </c>
@@ -6278,7 +5246,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>7.22</v>
       </c>
@@ -6286,7 +5254,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>7.18</v>
       </c>
@@ -6294,7 +5262,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>6.97</v>
       </c>
@@ -6302,7 +5270,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>6.89</v>
       </c>
@@ -6310,7 +5278,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>6.84</v>
       </c>
@@ -6318,7 +5286,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>6.73</v>
       </c>
@@ -6326,7 +5294,7 @@
         <v>2.69</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>6.6</v>
       </c>
@@ -6334,7 +5302,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>6.33</v>
       </c>
@@ -6342,7 +5310,7 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>6.3</v>
       </c>
@@ -6350,7 +5318,7 @@
         <v>3.19</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>6.22</v>
       </c>
@@ -6358,7 +5326,7 @@
         <v>3.24</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>6.2</v>
       </c>
@@ -6366,7 +5334,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>6.09</v>
       </c>
@@ -6374,7 +5342,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>5.99</v>
       </c>
@@ -6382,7 +5350,7 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>5.8</v>
       </c>
@@ -6390,7 +5358,7 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>5.7</v>
       </c>
@@ -6398,7 +5366,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>5.5</v>
       </c>
@@ -6406,7 +5374,7 @@
         <v>3.86</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>5.48</v>
       </c>
@@ -6414,7 +5382,7 @@
         <v>3.91</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>5.37</v>
       </c>
@@ -6422,7 +5390,7 @@
         <v>3.97</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>5.34</v>
       </c>
@@ -6430,7 +5398,7 @@
         <v>3.99</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>5.35</v>
       </c>
@@ -6438,7 +5406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>5.13</v>
       </c>
@@ -6446,7 +5414,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>5.0999999999999996</v>
       </c>
@@ -6454,7 +5422,7 @@
         <v>4.13</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>5.05</v>
       </c>
@@ -6462,7 +5430,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>5</v>
       </c>
@@ -6470,7 +5438,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>4.95</v>
       </c>
@@ -6478,7 +5446,7 @@
         <v>4.2300000000000004</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>4.87</v>
       </c>
@@ -6486,7 +5454,7 @@
         <v>4.26</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>4.8600000000000003</v>
       </c>
@@ -6494,7 +5462,7 @@
         <v>4.29</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>4.68</v>
       </c>
@@ -6502,7 +5470,7 @@
         <v>4.34</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>4.68</v>
       </c>
@@ -6510,7 +5478,7 @@
         <v>4.37</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>4.47</v>
       </c>
@@ -6518,7 +5486,7 @@
         <v>4.45</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>4.42</v>
       </c>
@@ -6526,7 +5494,7 @@
         <v>4.47</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>4.38</v>
       </c>
@@ -6534,7 +5502,7 @@
         <v>4.4800000000000004</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>4.04</v>
       </c>
@@ -6542,7 +5510,7 @@
         <v>4.55</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>4.0199999999999996</v>
       </c>
@@ -6550,7 +5518,7 @@
         <v>4.58</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>3.78</v>
       </c>
@@ -6558,7 +5526,7 @@
         <v>4.6399999999999997</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>3.66</v>
       </c>
@@ -6566,7 +5534,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>3.24</v>
       </c>
@@ -6574,7 +5542,7 @@
         <v>4.79</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>2.95</v>
       </c>
@@ -6582,7 +5550,7 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>2.94</v>
       </c>
@@ -6590,7 +5558,7 @@
         <v>4.79</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>2.84</v>
       </c>
@@ -6598,7 +5566,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>2.84</v>
       </c>
@@ -6606,7 +5574,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>2.79</v>
       </c>
@@ -6614,7 +5582,7 @@
         <v>4.84</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>2.4700000000000002</v>
       </c>
@@ -6622,7 +5590,7 @@
         <v>4.87</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>2.2200000000000002</v>
       </c>
@@ -6630,7 +5598,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>2.17</v>
       </c>
@@ -6638,7 +5606,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1.86</v>
       </c>
@@ -6646,7 +5614,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1.7</v>
       </c>
@@ -6654,7 +5622,7 @@
         <v>4.92</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1.53</v>
       </c>
@@ -6662,7 +5630,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>0.95</v>
       </c>
@@ -6670,7 +5638,7 @@
         <v>5.01</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>0.44</v>
       </c>
@@ -6678,7 +5646,7 @@
         <v>4.8499999999999996</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>0.39</v>
       </c>
@@ -6686,7 +5654,7 @@
         <v>4.87</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>0.2</v>
       </c>
@@ -6694,7 +5662,7 @@
         <v>4.84</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>-0.02</v>
       </c>
@@ -6702,7 +5670,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>-0.1</v>
       </c>
@@ -6710,7 +5678,7 @@
         <v>4.84</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>-0.33</v>
       </c>
@@ -6718,7 +5686,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>-0.33</v>
       </c>
@@ -6726,7 +5694,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>-0.63</v>
       </c>
@@ -6734,7 +5702,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>-0.73</v>
       </c>
@@ -6742,7 +5710,7 @@
         <v>4.79</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>-0.78</v>
       </c>
@@ -6750,7 +5718,7 @@
         <v>4.7699999999999996</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>-0.92</v>
       </c>
@@ -6758,7 +5726,7 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>-1.08</v>
       </c>
@@ -6766,7 +5734,7 @@
         <v>4.7699999999999996</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>-1.18</v>
       </c>
@@ -6774,7 +5742,7 @@
         <v>4.79</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>-1.35</v>
       </c>
@@ -6782,7 +5750,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>-1.43</v>
       </c>
@@ -6790,7 +5758,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>-1.58</v>
       </c>
@@ -6798,7 +5766,7 @@
         <v>4.8499999999999996</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>-1.59</v>
       </c>
@@ -6806,7 +5774,7 @@
         <v>4.84</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>-1.88</v>
       </c>
@@ -6814,7 +5782,7 @@
         <v>4.8499999999999996</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>-1.9</v>
       </c>
@@ -6822,7 +5790,7 @@
         <v>4.84</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>-2.02</v>
       </c>
@@ -6830,7 +5798,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>-2.2000000000000002</v>
       </c>
@@ -6838,7 +5806,7 @@
         <v>4.84</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>-2.41</v>
       </c>
@@ -6846,7 +5814,7 @@
         <v>4.79</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>-2.5499999999999998</v>
       </c>
@@ -6854,7 +5822,7 @@
         <v>4.74</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>-2.57</v>
       </c>
@@ -6862,7 +5830,7 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>-2.63</v>
       </c>
@@ -6870,7 +5838,7 @@
         <v>4.72</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>-2.68</v>
       </c>
@@ -6878,7 +5846,7 @@
         <v>4.71</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>-2.68</v>
       </c>
@@ -6886,7 +5854,7 @@
         <v>4.6900000000000004</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>-2.95</v>
       </c>
@@ -6894,7 +5862,7 @@
         <v>4.6100000000000003</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>-3.11</v>
       </c>
@@ -6902,7 +5870,7 @@
         <v>4.55</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>-3.18</v>
       </c>
@@ -6910,7 +5878,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>-3.22</v>
       </c>
@@ -6918,7 +5886,7 @@
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>-3.35</v>
       </c>
@@ -6926,7 +5894,7 @@
         <v>4.42</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>-3.46</v>
       </c>
@@ -6934,7 +5902,7 @@
         <v>4.3899999999999997</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>-3.64</v>
       </c>
@@ -6942,7 +5910,7 @@
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>-4.17</v>
       </c>
@@ -6950,7 +5918,7 @@
         <v>4.07</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>-4.2</v>
       </c>
@@ -6958,7 +5926,7 @@
         <v>4.05</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>-4.2</v>
       </c>
@@ -6966,7 +5934,7 @@
         <v>4.0199999999999996</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>-4.2300000000000004</v>
       </c>
@@ -6974,7 +5942,7 @@
         <v>4.04</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>-4.4400000000000004</v>
       </c>
@@ -6982,7 +5950,7 @@
         <v>3.94</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>-4.8899999999999997</v>
       </c>
@@ -6990,7 +5958,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>-4.95</v>
       </c>
@@ -6998,7 +5966,7 @@
         <v>3.76</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>-5.0599999999999996</v>
       </c>
@@ -7006,7 +5974,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>-5.1100000000000003</v>
       </c>
@@ -7014,7 +5982,7 @@
         <v>3.57</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>-5.26</v>
       </c>
@@ -7022,7 +5990,7 @@
         <v>3.46</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>-5.32</v>
       </c>
@@ -7030,7 +5998,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>-5.54</v>
       </c>
@@ -7038,7 +6006,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>-5.53</v>
       </c>
@@ -7046,7 +6014,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>-5.56</v>
       </c>
@@ -7054,7 +6022,7 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>-5.61</v>
       </c>
@@ -7062,7 +6030,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>-5.66</v>
       </c>
@@ -7070,7 +6038,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>-5.69</v>
       </c>
@@ -7078,7 +6046,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>-5.75</v>
       </c>
@@ -7086,7 +6054,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>-5.83</v>
       </c>
@@ -7094,7 +6062,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>-5.86</v>
       </c>
@@ -7102,7 +6070,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>-5.91</v>
       </c>
@@ -7110,7 +6078,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>-5.93</v>
       </c>
@@ -7118,7 +6086,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>-5.96</v>
       </c>
@@ -7126,7 +6094,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>-5.99</v>
       </c>
@@ -7134,7 +6102,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>-6.01</v>
       </c>
@@ -7142,7 +6110,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>-6.01</v>
       </c>
@@ -7150,7 +6118,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>-6.02</v>
       </c>
@@ -7158,7 +6126,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>-6.01</v>
       </c>
@@ -7166,7 +6134,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>-6.01</v>
       </c>
@@ -7174,7 +6142,7 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>-6.04</v>
       </c>
@@ -7182,7 +6150,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>-6.3</v>
       </c>
@@ -7190,7 +6158,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>-6.44</v>
       </c>
@@ -7198,7 +6166,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>-6.62</v>
       </c>
@@ -7206,7 +6174,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>-6.49</v>
       </c>
@@ -7214,7 +6182,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>-6.62</v>
       </c>
@@ -7222,7 +6190,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>-6.84</v>
       </c>
@@ -7230,7 +6198,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>-6.9</v>
       </c>
@@ -7238,7 +6206,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>-7.03</v>
       </c>
@@ -7246,7 +6214,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>-7.1</v>
       </c>
@@ -7254,7 +6222,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>-7.08</v>
       </c>
@@ -7262,7 +6230,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>-7.21</v>
       </c>
@@ -7270,7 +6238,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>-7.21</v>
       </c>
@@ -7278,7 +6246,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>-7.22</v>
       </c>
@@ -7293,904 +6261,449 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F68193B-88A3-48BF-A44F-5E487DB4643E}">
-  <dimension ref="B2:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7467D779-C124-4ACB-BA91-059366C2A667}">
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:4">
-      <c r="B2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>-35</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-31</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>-27</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>-23</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>-19</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>-17</v>
+      </c>
+      <c r="C7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>-15</v>
+      </c>
+      <c r="C8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>-13</v>
+      </c>
+      <c r="C9">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>-11</v>
+      </c>
+      <c r="C10">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>-9</v>
+      </c>
+      <c r="C11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>-7</v>
+      </c>
+      <c r="C12">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>-5</v>
+      </c>
+      <c r="C13">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>-3</v>
+      </c>
+      <c r="C14">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>-1</v>
+      </c>
+      <c r="C15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
-      <c r="B3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>90</v>
+      </c>
+      <c r="B19">
+        <v>-31</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>90</v>
+      </c>
+      <c r="B20">
+        <v>-27</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>90</v>
+      </c>
+      <c r="B21">
+        <v>-23</v>
+      </c>
+      <c r="C21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>90</v>
+      </c>
+      <c r="B22">
+        <v>-19</v>
+      </c>
+      <c r="C22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>90</v>
+      </c>
+      <c r="B23">
+        <v>-17</v>
+      </c>
+      <c r="C23">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>90</v>
+      </c>
+      <c r="B24">
+        <v>-15</v>
+      </c>
+      <c r="C24">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>90</v>
+      </c>
+      <c r="B25">
+        <v>-13</v>
+      </c>
+      <c r="C25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>90</v>
+      </c>
+      <c r="B26">
+        <v>-11</v>
+      </c>
+      <c r="C26">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>90</v>
+      </c>
+      <c r="B27">
+        <v>-9</v>
+      </c>
+      <c r="C27">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>90</v>
+      </c>
+      <c r="B28">
+        <v>-7</v>
+      </c>
+      <c r="C28">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>90</v>
+      </c>
+      <c r="B29">
+        <v>-5</v>
+      </c>
+      <c r="C29">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>90</v>
+      </c>
+      <c r="B30">
+        <v>-3</v>
+      </c>
+      <c r="C30">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>90</v>
+      </c>
+      <c r="B31">
+        <v>-1</v>
+      </c>
+      <c r="C31">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>90</v>
+      </c>
+      <c r="B32">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>-2.63</v>
-      </c>
-      <c r="D3">
-        <v>-4.32</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>-2.62</v>
-      </c>
-      <c r="D4">
-        <v>-4.33</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5">
+      <c r="C32">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>90</v>
+      </c>
+      <c r="B33">
         <v>3</v>
       </c>
-      <c r="C5">
-        <v>-2.57</v>
-      </c>
-      <c r="D5">
-        <v>-4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>-1.72</v>
-      </c>
-      <c r="D6">
-        <v>-4.51</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>-2.4900000000000002</v>
-      </c>
-      <c r="D7">
-        <v>-4.38</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8">
+      <c r="C33">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>90</v>
+      </c>
+      <c r="B34">
         <v>5</v>
       </c>
-      <c r="C8">
-        <v>-2.23</v>
-      </c>
-      <c r="D8">
-        <v>-4.4800000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9">
+      <c r="C34">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>90</v>
+      </c>
+      <c r="B35">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>90</v>
+      </c>
+      <c r="B36">
+        <v>11</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>90</v>
+      </c>
+      <c r="B37">
+        <v>15</v>
+      </c>
+      <c r="C37">
         <v>6</v>
       </c>
-      <c r="C9">
-        <v>-2.06</v>
-      </c>
-      <c r="D9">
-        <v>-4.5199999999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>-1.94</v>
-      </c>
-      <c r="D10">
-        <v>-4.5599999999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>-1.69</v>
-      </c>
-      <c r="D11">
-        <v>-4.57</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>-1.85</v>
-      </c>
-      <c r="D12">
-        <v>-4.46</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>-2.0099999999999998</v>
-      </c>
-      <c r="D13">
-        <v>-4.41</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <v>-2.17</v>
-      </c>
-      <c r="D14">
-        <v>-4.3600000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15">
-        <v>13</v>
-      </c>
-      <c r="C15">
-        <v>-2.2599999999999998</v>
-      </c>
-      <c r="D15">
-        <v>-4.33</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16">
-        <v>14</v>
-      </c>
-      <c r="C16">
-        <v>-2.2799999999999998</v>
-      </c>
-      <c r="D16">
-        <v>-4.32</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17">
-        <v>15</v>
-      </c>
-      <c r="C17">
-        <v>-2.46</v>
-      </c>
-      <c r="D17">
-        <v>-4.3</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D17">
-    <sortCondition ref="B3:B17"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699D116C-C848-49D7-8E92-B27F9548B74B}">
-  <dimension ref="B1:C20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3">
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="1">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="1">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="1">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="1">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="1">
-        <v>14</v>
-      </c>
-      <c r="C7">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="1">
-        <v>16</v>
-      </c>
-      <c r="C8">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="1">
-        <v>18</v>
-      </c>
-      <c r="C9">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="1">
-        <v>20</v>
-      </c>
-      <c r="C10">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="1">
-        <v>22</v>
-      </c>
-      <c r="C11">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="1">
-        <v>24</v>
-      </c>
-      <c r="C12">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="1">
-        <v>26</v>
-      </c>
-      <c r="C13">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="1">
-        <v>28</v>
-      </c>
-      <c r="C14">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="1">
-        <v>30</v>
-      </c>
-      <c r="C15">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="1">
-        <v>32</v>
-      </c>
-      <c r="C16">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="1">
-        <v>35</v>
-      </c>
-      <c r="C17">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="1">
-        <v>38</v>
-      </c>
-      <c r="C18">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="1">
-        <v>43</v>
-      </c>
-      <c r="C19">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="1">
-        <v>48</v>
-      </c>
-      <c r="C20">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7467D779-C124-4ACB-BA91-059366C2A667}">
-  <dimension ref="A1:C37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>-35</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-31</v>
-      </c>
-      <c r="C3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>-27</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>-23</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>-19</v>
-      </c>
-      <c r="C6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>-17</v>
-      </c>
-      <c r="C7">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>-15</v>
-      </c>
-      <c r="C8">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>-13</v>
-      </c>
-      <c r="C9">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>-11</v>
-      </c>
-      <c r="C10">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>-9</v>
-      </c>
-      <c r="C11">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>-7</v>
-      </c>
-      <c r="C12">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>-5</v>
-      </c>
-      <c r="C13">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>-3</v>
-      </c>
-      <c r="C14">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>-1</v>
-      </c>
-      <c r="C15">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <v>5</v>
-      </c>
-      <c r="C17">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>9</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>90</v>
-      </c>
-      <c r="B19">
-        <v>-31</v>
-      </c>
-      <c r="C19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>90</v>
-      </c>
-      <c r="B20">
-        <v>-27</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>90</v>
-      </c>
-      <c r="B21">
-        <v>-23</v>
-      </c>
-      <c r="C21">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>90</v>
-      </c>
-      <c r="B22">
-        <v>-19</v>
-      </c>
-      <c r="C22">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <v>90</v>
-      </c>
-      <c r="B23">
-        <v>-17</v>
-      </c>
-      <c r="C23">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>90</v>
-      </c>
-      <c r="B24">
-        <v>-15</v>
-      </c>
-      <c r="C24">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <v>90</v>
-      </c>
-      <c r="B25">
-        <v>-13</v>
-      </c>
-      <c r="C25">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <v>90</v>
-      </c>
-      <c r="B26">
-        <v>-11</v>
-      </c>
-      <c r="C26">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <v>90</v>
-      </c>
-      <c r="B27">
-        <v>-9</v>
-      </c>
-      <c r="C27">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
-        <v>90</v>
-      </c>
-      <c r="B28">
-        <v>-7</v>
-      </c>
-      <c r="C28">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
-        <v>90</v>
-      </c>
-      <c r="B29">
-        <v>-5</v>
-      </c>
-      <c r="C29">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
-        <v>90</v>
-      </c>
-      <c r="B30">
-        <v>-3</v>
-      </c>
-      <c r="C30">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
-        <v>90</v>
-      </c>
-      <c r="B31">
-        <v>-1</v>
-      </c>
-      <c r="C31">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
-        <v>90</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
-        <v>90</v>
-      </c>
-      <c r="B33">
-        <v>3</v>
-      </c>
-      <c r="C33">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34">
-        <v>90</v>
-      </c>
-      <c r="B34">
-        <v>5</v>
-      </c>
-      <c r="C34">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35">
-        <v>90</v>
-      </c>
-      <c r="B35">
-        <v>7</v>
-      </c>
-      <c r="C35">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36">
-        <v>90</v>
-      </c>
-      <c r="B36">
-        <v>11</v>
-      </c>
-      <c r="C36">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37">
-        <v>90</v>
-      </c>
-      <c r="B37">
-        <v>15</v>
-      </c>
-      <c r="C37">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{093B13D8-5FC0-4AE1-9D8D-266C440D6495}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>60</v>
-      </c>
-      <c r="D2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>90</v>
-      </c>
-      <c r="D3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>120</v>
-      </c>
-      <c r="D4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>120</v>
-      </c>
-      <c r="D5">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9766CC21-4FCC-4DA8-BE37-FF6AC6B62BAC}">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -8201,7 +6714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -8212,7 +6725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -8223,7 +6736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -8234,7 +6747,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -8245,7 +6758,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -8256,7 +6769,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -8267,7 +6780,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -8278,7 +6791,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -8289,7 +6802,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -8300,7 +6813,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -8311,7 +6824,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -8322,7 +6835,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -8333,7 +6846,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -8344,7 +6857,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -8355,7 +6868,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -8366,7 +6879,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>90</v>
       </c>
@@ -8377,7 +6890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>90</v>
       </c>
@@ -8388,7 +6901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>90</v>
       </c>
@@ -8399,7 +6912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>90</v>
       </c>
@@ -8410,7 +6923,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>90</v>
       </c>
@@ -8421,7 +6934,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>90</v>
       </c>
@@ -8432,7 +6945,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>90</v>
       </c>
@@ -8443,7 +6956,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>90</v>
       </c>
@@ -8454,7 +6967,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>90</v>
       </c>
@@ -8465,7 +6978,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>90</v>
       </c>
@@ -8476,7 +6989,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>90</v>
       </c>
@@ -8487,7 +7000,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>90</v>
       </c>
@@ -8498,7 +7011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>90</v>
       </c>
@@ -8509,7 +7022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>90</v>
       </c>
@@ -8520,7 +7033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>90</v>
       </c>
@@ -8531,7 +7044,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>90</v>
       </c>
@@ -8542,7 +7055,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>120</v>
       </c>
@@ -8553,7 +7066,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>120</v>
       </c>
@@ -8564,7 +7077,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>120</v>
       </c>
@@ -8575,7 +7088,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>120</v>
       </c>
@@ -8586,7 +7099,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>120</v>
       </c>
@@ -8597,7 +7110,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>120</v>
       </c>
@@ -8608,7 +7121,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>120</v>
       </c>
@@ -8619,7 +7132,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>120</v>
       </c>
@@ -8630,7 +7143,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>120</v>
       </c>
@@ -8641,7 +7154,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>120</v>
       </c>
@@ -8652,7 +7165,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>120</v>
       </c>
@@ -8663,7 +7176,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>120</v>
       </c>
@@ -8674,7 +7187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>120</v>
       </c>
@@ -8685,7 +7198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>120</v>
       </c>
@@ -8696,7 +7209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>120</v>
       </c>
@@ -8707,7 +7220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>120</v>
       </c>
